--- a/contratos/contratos-4-2010.xlsx
+++ b/contratos/contratos-4-2010.xlsx
@@ -574,7 +574,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -586,7 +586,7 @@
     <t>YLUM S.A.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>A. ROPELATO S.R.L.</t>
@@ -628,7 +628,7 @@
     <t>MINATTA CARLOS A. Y CABRERA MARCELO D.</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>SYLVESTRE CARLOS OMAR</t>
@@ -649,7 +649,7 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>JACOBI SERGIO JAVIER</t>
@@ -691,7 +691,7 @@
     <t>NAUTICA COOK S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>FLEMING Y MARTOLIO S.R.L.</t>
@@ -1084,481 +1084,481 @@
     <t>99</t>
   </si>
   <si>
-    <t>1.730,00</t>
-  </si>
-  <si>
-    <t>766,00</t>
-  </si>
-  <si>
-    <t>131.000,10</t>
-  </si>
-  <si>
-    <t>142,50</t>
-  </si>
-  <si>
-    <t>3.729,60</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>2.210,60</t>
-  </si>
-  <si>
-    <t>4.415,97</t>
-  </si>
-  <si>
-    <t>23.450,00</t>
-  </si>
-  <si>
-    <t>131.196,99</t>
-  </si>
-  <si>
-    <t>1.186,50</t>
-  </si>
-  <si>
-    <t>18.049,03</t>
-  </si>
-  <si>
-    <t>5.926,80</t>
-  </si>
-  <si>
-    <t>2.081,87</t>
-  </si>
-  <si>
-    <t>5.323,63</t>
-  </si>
-  <si>
-    <t>762,40</t>
-  </si>
-  <si>
-    <t>461,20</t>
-  </si>
-  <si>
-    <t>6.319,49</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>58,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.245,00</t>
-  </si>
-  <si>
-    <t>8.322,00</t>
-  </si>
-  <si>
-    <t>795,00</t>
-  </si>
-  <si>
-    <t>4.010,00</t>
-  </si>
-  <si>
-    <t>764,56</t>
-  </si>
-  <si>
-    <t>8.447,00</t>
-  </si>
-  <si>
-    <t>1.545,70</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>12.956,50</t>
-  </si>
-  <si>
-    <t>13.079,35</t>
-  </si>
-  <si>
-    <t>2.887,00</t>
-  </si>
-  <si>
-    <t>0,14</t>
-  </si>
-  <si>
-    <t>165,56</t>
-  </si>
-  <si>
-    <t>10.461,81</t>
-  </si>
-  <si>
-    <t>11,00</t>
-  </si>
-  <si>
-    <t>629,28</t>
-  </si>
-  <si>
-    <t>20,90</t>
-  </si>
-  <si>
-    <t>53,98</t>
-  </si>
-  <si>
-    <t>26.554,88</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>50.164,32</t>
-  </si>
-  <si>
-    <t>5.642,00</t>
-  </si>
-  <si>
-    <t>28,34</t>
-  </si>
-  <si>
-    <t>1.242,19</t>
-  </si>
-  <si>
-    <t>4.575,14</t>
-  </si>
-  <si>
-    <t>653,64</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>2.937,00</t>
-  </si>
-  <si>
-    <t>3.832,57</t>
-  </si>
-  <si>
-    <t>888,00</t>
-  </si>
-  <si>
-    <t>1.746,29</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>55,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>13.674,00</t>
-  </si>
-  <si>
-    <t>155,00</t>
-  </si>
-  <si>
-    <t>11.355,90</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>32.941,00</t>
-  </si>
-  <si>
-    <t>5.211,80</t>
-  </si>
-  <si>
-    <t>4.515,60</t>
-  </si>
-  <si>
-    <t>2.142,71</t>
-  </si>
-  <si>
-    <t>5.345,48</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>7.092,00</t>
-  </si>
-  <si>
-    <t>304,50</t>
-  </si>
-  <si>
-    <t>1.337,07</t>
-  </si>
-  <si>
-    <t>955,20</t>
-  </si>
-  <si>
-    <t>1.740,00</t>
-  </si>
-  <si>
-    <t>36.635,00</t>
-  </si>
-  <si>
-    <t>940,00</t>
-  </si>
-  <si>
-    <t>91.770,00</t>
-  </si>
-  <si>
-    <t>12.998,31</t>
-  </si>
-  <si>
-    <t>0,24</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>4.349,47</t>
-  </si>
-  <si>
-    <t>2.228,80</t>
-  </si>
-  <si>
-    <t>1.753,00</t>
-  </si>
-  <si>
-    <t>809,50</t>
-  </si>
-  <si>
-    <t>956,26</t>
-  </si>
-  <si>
-    <t>7.780,00</t>
-  </si>
-  <si>
-    <t>86,50</t>
-  </si>
-  <si>
-    <t>836,50</t>
-  </si>
-  <si>
-    <t>3.131,10</t>
-  </si>
-  <si>
-    <t>7,48</t>
-  </si>
-  <si>
-    <t>670,00</t>
-  </si>
-  <si>
-    <t>287,00</t>
-  </si>
-  <si>
-    <t>8.839,50</t>
-  </si>
-  <si>
-    <t>73,70</t>
-  </si>
-  <si>
-    <t>378,00</t>
-  </si>
-  <si>
-    <t>142,34</t>
-  </si>
-  <si>
-    <t>336,00</t>
-  </si>
-  <si>
-    <t>27,83</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>832,00</t>
-  </si>
-  <si>
-    <t>498,00</t>
-  </si>
-  <si>
-    <t>875,00</t>
-  </si>
-  <si>
-    <t>145,20</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>2.755,73</t>
-  </si>
-  <si>
-    <t>794.487,28</t>
-  </si>
-  <si>
-    <t>870,00</t>
-  </si>
-  <si>
-    <t>5.831,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>11.043,92</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>9.317,00</t>
-  </si>
-  <si>
-    <t>265,20</t>
-  </si>
-  <si>
-    <t>17.545,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>2.238,00</t>
-  </si>
-  <si>
-    <t>689,52</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>9.539,01</t>
-  </si>
-  <si>
-    <t>198,00</t>
-  </si>
-  <si>
-    <t>38,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>363,00</t>
-  </si>
-  <si>
-    <t>3.325,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>24,40</t>
-  </si>
-  <si>
-    <t>606,96</t>
-  </si>
-  <si>
-    <t>2.235,81</t>
-  </si>
-  <si>
-    <t>1.745,00</t>
-  </si>
-  <si>
-    <t>99,00</t>
-  </si>
-  <si>
-    <t>9.279,10</t>
-  </si>
-  <si>
-    <t>675,00</t>
-  </si>
-  <si>
-    <t>888,80</t>
-  </si>
-  <si>
-    <t>3.919,00</t>
-  </si>
-  <si>
-    <t>231,84</t>
-  </si>
-  <si>
-    <t>29,00</t>
-  </si>
-  <si>
-    <t>2.410,50</t>
-  </si>
-  <si>
-    <t>25.319,50</t>
-  </si>
-  <si>
-    <t>2.076,26</t>
-  </si>
-  <si>
-    <t>1.831,00</t>
-  </si>
-  <si>
-    <t>2.532,53</t>
-  </si>
-  <si>
-    <t>64.405,71</t>
-  </si>
-  <si>
-    <t>2.738,29</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>31.150,00</t>
-  </si>
-  <si>
-    <t>1.194,92</t>
-  </si>
-  <si>
-    <t>823,00</t>
-  </si>
-  <si>
-    <t>316.948,14</t>
-  </si>
-  <si>
-    <t>33.400,00</t>
-  </si>
-  <si>
-    <t>227.379,37</t>
-  </si>
-  <si>
-    <t>41.000,00</t>
-  </si>
-  <si>
-    <t>1.129,26</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
+    <t>1730.00</t>
+  </si>
+  <si>
+    <t>766.00</t>
+  </si>
+  <si>
+    <t>131000.10</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>3729.60</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>2210.60</t>
+  </si>
+  <si>
+    <t>4415.97</t>
+  </si>
+  <si>
+    <t>23450.00</t>
+  </si>
+  <si>
+    <t>131196.99</t>
+  </si>
+  <si>
+    <t>1186.50</t>
+  </si>
+  <si>
+    <t>18049.03</t>
+  </si>
+  <si>
+    <t>5926.80</t>
+  </si>
+  <si>
+    <t>2081.87</t>
+  </si>
+  <si>
+    <t>5323.63</t>
+  </si>
+  <si>
+    <t>762.40</t>
+  </si>
+  <si>
+    <t>461.20</t>
+  </si>
+  <si>
+    <t>6319.49</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1245.00</t>
+  </si>
+  <si>
+    <t>8322.00</t>
+  </si>
+  <si>
+    <t>795.00</t>
+  </si>
+  <si>
+    <t>4010.00</t>
+  </si>
+  <si>
+    <t>764.56</t>
+  </si>
+  <si>
+    <t>8447.00</t>
+  </si>
+  <si>
+    <t>1545.70</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>12956.50</t>
+  </si>
+  <si>
+    <t>13079.35</t>
+  </si>
+  <si>
+    <t>2887.00</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>165.56</t>
+  </si>
+  <si>
+    <t>10461.81</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>629.28</t>
+  </si>
+  <si>
+    <t>20.90</t>
+  </si>
+  <si>
+    <t>53.98</t>
+  </si>
+  <si>
+    <t>26554.88</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>50164.32</t>
+  </si>
+  <si>
+    <t>5642.00</t>
+  </si>
+  <si>
+    <t>28.34</t>
+  </si>
+  <si>
+    <t>1242.19</t>
+  </si>
+  <si>
+    <t>4575.14</t>
+  </si>
+  <si>
+    <t>653.64</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>2937.00</t>
+  </si>
+  <si>
+    <t>3832.57</t>
+  </si>
+  <si>
+    <t>888.00</t>
+  </si>
+  <si>
+    <t>1746.29</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>13674.00</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>11355.90</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>32941.00</t>
+  </si>
+  <si>
+    <t>5211.80</t>
+  </si>
+  <si>
+    <t>4515.60</t>
+  </si>
+  <si>
+    <t>2142.71</t>
+  </si>
+  <si>
+    <t>5345.48</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>7092.00</t>
+  </si>
+  <si>
+    <t>304.50</t>
+  </si>
+  <si>
+    <t>1337.07</t>
+  </si>
+  <si>
+    <t>955.20</t>
+  </si>
+  <si>
+    <t>1740.00</t>
+  </si>
+  <si>
+    <t>36635.00</t>
+  </si>
+  <si>
+    <t>940.00</t>
+  </si>
+  <si>
+    <t>91770.00</t>
+  </si>
+  <si>
+    <t>12998.31</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>4349.47</t>
+  </si>
+  <si>
+    <t>2228.80</t>
+  </si>
+  <si>
+    <t>1753.00</t>
+  </si>
+  <si>
+    <t>809.50</t>
+  </si>
+  <si>
+    <t>956.26</t>
+  </si>
+  <si>
+    <t>7780.00</t>
+  </si>
+  <si>
+    <t>86.50</t>
+  </si>
+  <si>
+    <t>836.50</t>
+  </si>
+  <si>
+    <t>3131.10</t>
+  </si>
+  <si>
+    <t>7.48</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>287.00</t>
+  </si>
+  <si>
+    <t>8839.50</t>
+  </si>
+  <si>
+    <t>73.70</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>142.34</t>
+  </si>
+  <si>
+    <t>336.00</t>
+  </si>
+  <si>
+    <t>27.83</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>832.00</t>
+  </si>
+  <si>
+    <t>498.00</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>145.20</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>2755.73</t>
+  </si>
+  <si>
+    <t>794487.28</t>
+  </si>
+  <si>
+    <t>870.00</t>
+  </si>
+  <si>
+    <t>5831.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>11043.92</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>9317.00</t>
+  </si>
+  <si>
+    <t>265.20</t>
+  </si>
+  <si>
+    <t>17545.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>2238.00</t>
+  </si>
+  <si>
+    <t>689.52</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>9539.01</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>363.00</t>
+  </si>
+  <si>
+    <t>3325.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>24.40</t>
+  </si>
+  <si>
+    <t>606.96</t>
+  </si>
+  <si>
+    <t>2235.81</t>
+  </si>
+  <si>
+    <t>1745.00</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>9279.10</t>
+  </si>
+  <si>
+    <t>675.00</t>
+  </si>
+  <si>
+    <t>888.80</t>
+  </si>
+  <si>
+    <t>3919.00</t>
+  </si>
+  <si>
+    <t>231.84</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>2410.50</t>
+  </si>
+  <si>
+    <t>25319.50</t>
+  </si>
+  <si>
+    <t>2076.26</t>
+  </si>
+  <si>
+    <t>1831.00</t>
+  </si>
+  <si>
+    <t>2532.53</t>
+  </si>
+  <si>
+    <t>64405.71</t>
+  </si>
+  <si>
+    <t>2738.29</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>31150.00</t>
+  </si>
+  <si>
+    <t>1194.92</t>
+  </si>
+  <si>
+    <t>823.00</t>
+  </si>
+  <si>
+    <t>316948.14</t>
+  </si>
+  <si>
+    <t>33400.00</t>
+  </si>
+  <si>
+    <t>227379.37</t>
+  </si>
+  <si>
+    <t>41000.00</t>
+  </si>
+  <si>
+    <t>1129.26</t>
+  </si>
+  <si>
+    <t>4000.00</t>
   </si>
 </sst>
 </file>
